--- a/MEDIA/_1102 _201_會計科目餘額明細.xlsx
+++ b/MEDIA/_1102 _201_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_1102 _201_2020-10-01~2020-10-14)</t>
+          <t>森邦(股)會計科目餘額明細(_1102 _201_2020-10-31~2020-10-31)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>14119539</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,147 +442,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>中信ATM-現金存款                    </t>
+          <t>存現                            </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10000</v>
+        <v>321611</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10000</v>
+        <v>14441150</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109952</t>
+          <t>110815</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1102  .201     </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>存現                            </t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>299</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10299</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>109982</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1102  .201     </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>存現                            </t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>5339</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>15638</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>109982</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1102  .201     </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>存現                            </t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>15060</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>30698</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>109982</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/MEDIA/_1102 _201_會計科目餘額明細.xlsx
+++ b/MEDIA/_1102 _201_會計科目餘額明細.xlsx
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_1102 _201_2020-10-31~2020-10-31)</t>
+          <t>森邦(股)會計科目餘額明細(_1102 _201_2020-12-02~2020-12-02)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>14119539</v>
+        <v>19266225</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -446,17 +446,17 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>321611</v>
+        <v>1380305</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>14441150</v>
+        <v>20646530</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110815</t>
+          <t>112239</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
